--- a/src/main/resources/upload/网元基础信息auto_网元基础信息表.xlsx
+++ b/src/main/resources/upload/网元基础信息auto_网元基础信息表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32360" windowHeight="16360"/>
+    <workbookView windowWidth="32480" windowHeight="16520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="28">
   <si>
     <t>网元名称</t>
   </si>
@@ -77,6 +77,27 @@
   </si>
   <si>
     <t>auto_test_010</t>
+  </si>
+  <si>
+    <t>auto_mme_001</t>
+  </si>
+  <si>
+    <t>auto_mme_002</t>
+  </si>
+  <si>
+    <t>auto_mme_003</t>
+  </si>
+  <si>
+    <t>auto_csce_001</t>
+  </si>
+  <si>
+    <t>CSCE</t>
+  </si>
+  <si>
+    <t>auto_csce_002</t>
+  </si>
+  <si>
+    <t>auto_csce_003</t>
   </si>
 </sst>
 </file>
@@ -85,8 +106,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -99,14 +120,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,31 +141,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,7 +173,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,12 +205,42 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -203,47 +248,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,25 +279,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,115 +435,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,30 +454,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,15 +470,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -475,21 +487,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,6 +532,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -551,159 +572,160 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1023,10 +1045,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1259,6 +1281,126 @@
         <v>11</v>
       </c>
     </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/src/main/resources/upload/网元基础信息auto_网元基础信息表.xlsx
+++ b/src/main/resources/upload/网元基础信息auto_网元基础信息表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32480" windowHeight="16520"/>
+    <workbookView windowWidth="32360" windowHeight="16520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="29">
   <si>
     <t>网元名称</t>
   </si>
@@ -37,49 +37,52 @@
     <t>auto_test_001</t>
   </si>
   <si>
+    <t>AUTO</t>
+  </si>
+  <si>
+    <t>192.168.88.123</t>
+  </si>
+  <si>
+    <t>华为</t>
+  </si>
+  <si>
+    <t>ME60</t>
+  </si>
+  <si>
+    <t>带业务</t>
+  </si>
+  <si>
+    <t>auto_test_002</t>
+  </si>
+  <si>
+    <t>auto_test_003</t>
+  </si>
+  <si>
+    <t>auto_test_004</t>
+  </si>
+  <si>
+    <t>auto_test_005</t>
+  </si>
+  <si>
+    <t>auto_test_006</t>
+  </si>
+  <si>
+    <t>auto_test_007</t>
+  </si>
+  <si>
+    <t>auto_test_008</t>
+  </si>
+  <si>
+    <t>auto_test_009</t>
+  </si>
+  <si>
+    <t>auto_test_010</t>
+  </si>
+  <si>
+    <t>auto_mme_001</t>
+  </si>
+  <si>
     <t>MME</t>
-  </si>
-  <si>
-    <t>192.168.88.123</t>
-  </si>
-  <si>
-    <t>华为</t>
-  </si>
-  <si>
-    <t>ME60</t>
-  </si>
-  <si>
-    <t>带业务</t>
-  </si>
-  <si>
-    <t>auto_test_002</t>
-  </si>
-  <si>
-    <t>auto_test_003</t>
-  </si>
-  <si>
-    <t>auto_test_004</t>
-  </si>
-  <si>
-    <t>auto_test_005</t>
-  </si>
-  <si>
-    <t>auto_test_006</t>
-  </si>
-  <si>
-    <t>auto_test_007</t>
-  </si>
-  <si>
-    <t>auto_test_008</t>
-  </si>
-  <si>
-    <t>auto_test_009</t>
-  </si>
-  <si>
-    <t>auto_test_010</t>
-  </si>
-  <si>
-    <t>auto_mme_001</t>
   </si>
   <si>
     <t>auto_mme_002</t>
@@ -106,8 +109,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -120,14 +123,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,6 +151,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -150,9 +167,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,32 +181,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,12 +215,19 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,30 +236,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,21 +268,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,6 +282,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -291,25 +306,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,13 +366,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,61 +438,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,61 +450,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,8 +479,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,22 +489,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,26 +505,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,6 +525,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -570,153 +564,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1048,7 +1051,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1286,7 +1289,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
@@ -1303,10 +1306,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
@@ -1323,10 +1326,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
@@ -1343,10 +1346,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
@@ -1363,10 +1366,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
@@ -1383,10 +1386,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
